--- a/data/trans_orig/P12_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P12_3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDDDB80-5C56-47F9-AE85-E73748193848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F954DA17-CAEB-416E-894B-3918164C34BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CAB84BF1-8806-44D1-9F1F-81D06663CDD1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3311B5BA-1CD6-4F34-BECB-39B8A907C14A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="606">
   <si>
     <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>5,64%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>94,36%</t>
   </si>
   <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1693 +140,1723 @@
     <t>8,04%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>0%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>88,45%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
     <t>85,08%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
     <t>91,06%</t>
   </si>
   <si>
-    <t>93,0%</t>
+    <t>88,55%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>18,8%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>83,96%</t>
   </si>
   <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>84,57%</t>
   </si>
   <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>81,2%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>10,55%</t>
+    <t>10,58%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>89,45%</t>
+    <t>89,42%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>89,53%</t>
   </si>
   <si>
-    <t>87,36%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
 </sst>
 </file>
@@ -2238,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFCDF66-A05D-416B-8623-A468BDBFF8AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC062E4-BBA2-44C1-89F4-DC769F975CAD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2705,10 +2735,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2753,13 @@
         <v>316187</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>329</v>
@@ -2738,13 +2768,13 @@
         <v>329683</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>637</v>
@@ -2753,13 +2783,13 @@
         <v>645870</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,7 +2845,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2827,13 +2857,13 @@
         <v>4496</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2842,13 +2872,13 @@
         <v>14820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2857,13 +2887,13 @@
         <v>19315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2908,13 @@
         <v>354175</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
@@ -2893,13 +2923,13 @@
         <v>356636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>727</v>
@@ -2908,13 +2938,13 @@
         <v>710812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,7 +3000,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2982,13 +3012,13 @@
         <v>23113</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2997,13 +3027,13 @@
         <v>36477</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3012,13 +3042,13 @@
         <v>59590</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3063,13 @@
         <v>180195</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>163</v>
@@ -3048,13 +3078,13 @@
         <v>171191</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -3063,13 +3093,13 @@
         <v>351386</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,7 +3155,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3137,13 +3167,13 @@
         <v>985</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3152,13 +3182,13 @@
         <v>9107</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3167,13 +3197,13 @@
         <v>10092</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3218,13 @@
         <v>269826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" s="7">
         <v>261</v>
@@ -3203,13 +3233,13 @@
         <v>269037</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -3218,13 +3248,13 @@
         <v>538863</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,7 +3310,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3292,13 +3322,13 @@
         <v>27296</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -3307,13 +3337,13 @@
         <v>33201</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3322,13 +3352,13 @@
         <v>60497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3373,13 @@
         <v>587731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>588</v>
@@ -3358,13 +3388,13 @@
         <v>605018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3373,13 +3403,13 @@
         <v>1192749</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,7 +3465,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3447,13 +3477,13 @@
         <v>52456</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>92</v>
@@ -3462,13 +3492,13 @@
         <v>99324</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -3477,13 +3507,13 @@
         <v>151780</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3528,13 @@
         <v>691339</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>653</v>
@@ -3513,13 +3543,13 @@
         <v>684187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1336</v>
@@ -3528,13 +3558,13 @@
         <v>1375526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3632,13 @@
         <v>166046</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>277</v>
@@ -3617,13 +3647,13 @@
         <v>286526</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>439</v>
@@ -3632,13 +3662,13 @@
         <v>452571</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3683,13 @@
         <v>3110498</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>3020</v>
@@ -3668,28 +3698,28 @@
         <v>3092672</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>6072</v>
       </c>
       <c r="N29" s="7">
-        <v>6203169</v>
+        <v>6203170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3761,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3745,7 +3775,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3769,7 +3799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB2C853-A25B-4190-8C9E-3C17B51D024E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121C88B1-B3B1-4169-B136-7E87E9085ABE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3786,7 +3816,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3891,39 +3921,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,39 +3966,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,39 +4011,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4060,13 @@
         <v>35674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>53</v>
@@ -4045,13 +4075,13 @@
         <v>58580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
@@ -4060,13 +4090,13 @@
         <v>94254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4111,13 @@
         <v>468445</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -4096,13 +4126,13 @@
         <v>464193</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>864</v>
@@ -4111,13 +4141,13 @@
         <v>932638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4215,13 @@
         <v>18494</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4200,13 +4230,13 @@
         <v>38453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -4215,13 +4245,13 @@
         <v>56947</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4266,13 @@
         <v>305552</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>281</v>
@@ -4251,13 +4281,13 @@
         <v>302567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>582</v>
@@ -4266,13 +4296,13 @@
         <v>608119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,7 +4358,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4340,13 +4370,13 @@
         <v>69356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -4355,13 +4385,13 @@
         <v>158037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -4370,13 +4400,13 @@
         <v>227393</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4421,13 @@
         <v>598399</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>480</v>
@@ -4406,13 +4436,13 @@
         <v>516113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>1039</v>
@@ -4421,13 +4451,13 @@
         <v>1114512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,7 +4513,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4495,13 +4525,13 @@
         <v>10444</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4510,13 +4540,13 @@
         <v>28876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -4525,13 +4555,13 @@
         <v>39320</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4576,13 @@
         <v>202174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -4561,13 +4591,13 @@
         <v>190715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>370</v>
@@ -4576,13 +4606,13 @@
         <v>392889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,7 +4668,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4650,13 +4680,13 @@
         <v>22722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -4665,13 +4695,13 @@
         <v>29942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4680,13 +4710,13 @@
         <v>52664</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4731,13 @@
         <v>251259</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>239</v>
@@ -4716,28 +4746,28 @@
         <v>249138</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
       </c>
       <c r="N20" s="7">
-        <v>500398</v>
+        <v>500397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,7 +4809,7 @@
         <v>529</v>
       </c>
       <c r="N21" s="7">
-        <v>553062</v>
+        <v>553061</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4793,7 +4823,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4805,13 +4835,13 @@
         <v>37854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -4820,13 +4850,13 @@
         <v>55855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -4835,13 +4865,13 @@
         <v>93709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4886,13 @@
         <v>624934</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>587</v>
@@ -4871,13 +4901,13 @@
         <v>637016</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>1170</v>
@@ -4886,13 +4916,13 @@
         <v>1261950</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4978,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4960,13 +4990,13 @@
         <v>81964</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -4975,13 +5005,13 @@
         <v>102533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -4990,13 +5020,13 @@
         <v>184498</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5041,13 @@
         <v>693934</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>665</v>
@@ -5026,13 +5056,13 @@
         <v>720256</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>1304</v>
@@ -5041,13 +5071,13 @@
         <v>1414189</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5145,13 @@
         <v>276508</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="H28" s="7">
         <v>430</v>
@@ -5130,13 +5160,13 @@
         <v>472276</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>689</v>
@@ -5145,13 +5175,13 @@
         <v>748783</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5196,13 @@
         <v>3144697</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="H29" s="7">
         <v>2862</v>
@@ -5181,28 +5211,28 @@
         <v>3079998</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>5807</v>
       </c>
       <c r="N29" s="7">
-        <v>6224696</v>
+        <v>6224695</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,7 +5274,7 @@
         <v>6496</v>
       </c>
       <c r="N30" s="7">
-        <v>6973479</v>
+        <v>6973478</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5258,7 +5288,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5282,7 +5312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5035C668-8EC0-4FD1-BB3E-8909F65583FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDD2DA1-D3FF-4EF4-989A-1A51A833688F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5299,7 +5329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5406,13 +5436,13 @@
         <v>34472</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -5421,13 +5451,13 @@
         <v>51757</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -5436,13 +5466,13 @@
         <v>86229</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5487,13 @@
         <v>258302</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>229</v>
@@ -5472,13 +5502,13 @@
         <v>236946</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>462</v>
@@ -5487,13 +5517,13 @@
         <v>495248</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5591,13 @@
         <v>20643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -5576,13 +5606,13 @@
         <v>39502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -5591,13 +5621,13 @@
         <v>60145</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5642,13 @@
         <v>480786</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -5627,13 +5657,13 @@
         <v>481507</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>900</v>
@@ -5642,13 +5672,13 @@
         <v>962294</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,10 +5746,10 @@
         <v>15749</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>32</v>
@@ -5731,13 +5761,13 @@
         <v>15369</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5746,13 +5776,13 @@
         <v>31118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5797,13 @@
         <v>302816</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -5782,13 +5812,13 @@
         <v>318106</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -5797,13 +5827,13 @@
         <v>620922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,7 +5889,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5871,13 +5901,13 @@
         <v>25979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -5886,13 +5916,13 @@
         <v>67303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -5901,13 +5931,13 @@
         <v>93282</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5952,13 @@
         <v>343985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -5937,13 +5967,13 @@
         <v>319099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>625</v>
@@ -5952,13 +5982,13 @@
         <v>663084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,7 +6044,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6026,13 +6056,13 @@
         <v>30950</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -6041,13 +6071,13 @@
         <v>51422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -6056,13 +6086,13 @@
         <v>82372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6107,13 @@
         <v>180271</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>173</v>
@@ -6092,13 +6122,13 @@
         <v>167165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -6107,13 +6137,13 @@
         <v>347436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,7 +6199,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6181,13 +6211,13 @@
         <v>17096</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -6196,13 +6226,13 @@
         <v>36817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -6211,13 +6241,13 @@
         <v>53913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6262,13 @@
         <v>246027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -6247,13 +6277,13 @@
         <v>236298</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M20" s="7">
         <v>472</v>
@@ -6262,13 +6292,13 @@
         <v>482325</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,7 +6354,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6336,13 +6366,13 @@
         <v>52093</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -6351,13 +6381,13 @@
         <v>75459</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>111</v>
@@ -6366,13 +6396,13 @@
         <v>127552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6417,13 @@
         <v>604465</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -6402,13 +6432,13 @@
         <v>614564</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>1114</v>
@@ -6417,13 +6447,13 @@
         <v>1219029</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,7 +6509,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6491,13 +6521,13 @@
         <v>53102</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -6506,13 +6536,13 @@
         <v>77715</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>118</v>
@@ -6521,13 +6551,13 @@
         <v>130817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6572,13 @@
         <v>722342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>688</v>
@@ -6557,13 +6587,13 @@
         <v>748452</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>1384</v>
@@ -6572,13 +6602,13 @@
         <v>1470794</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6676,13 @@
         <v>250085</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>373</v>
@@ -6661,13 +6691,13 @@
         <v>415345</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>283</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>614</v>
@@ -6676,13 +6706,13 @@
         <v>665430</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6727,13 @@
         <v>3138993</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>2958</v>
@@ -6712,13 +6742,13 @@
         <v>3122136</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>291</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>5943</v>
@@ -6727,13 +6757,13 @@
         <v>6261129</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,7 +6819,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6813,7 +6843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A7D879-A2A5-4540-AA65-51BBF3F3D20D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F767D8B-CF92-4C9E-96F5-A42E4DA527B3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6830,7 +6860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6940,10 +6970,10 @@
         <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -6952,13 +6982,13 @@
         <v>2661</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6967,13 +6997,13 @@
         <v>2661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,10 +7018,10 @@
         <v>260298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>65</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -7003,13 +7033,13 @@
         <v>268742</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>862</v>
@@ -7018,13 +7048,13 @@
         <v>529039</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,28 +7122,28 @@
         <v>30591</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>47921</v>
+        <v>47920</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>85</v>
@@ -7122,13 +7152,13 @@
         <v>78511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7173,13 @@
         <v>488706</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H8" s="7">
         <v>655</v>
@@ -7158,13 +7188,13 @@
         <v>505827</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M8" s="7">
         <v>1013</v>
@@ -7173,13 +7203,13 @@
         <v>994534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>497</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,7 +7236,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553748</v>
+        <v>553747</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7247,13 +7277,13 @@
         <v>23118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>494</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>348</v>
+        <v>495</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -7262,13 +7292,13 @@
         <v>44958</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M10" s="7">
         <v>104</v>
@@ -7277,13 +7307,13 @@
         <v>68076</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7328,13 @@
         <v>299122</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>502</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>503</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>504</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -7313,13 +7343,13 @@
         <v>327133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M11" s="7">
         <v>790</v>
@@ -7328,13 +7358,13 @@
         <v>626255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>509</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,7 +7420,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7402,13 +7432,13 @@
         <v>17362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>509</v>
+        <v>347</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -7417,10 +7447,10 @@
         <v>49361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>511</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>512</v>
@@ -7435,10 +7465,10 @@
         <v>513</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,10 +7486,10 @@
         <v>515</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>517</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -7468,13 +7498,13 @@
         <v>377892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>516</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="M14" s="7">
         <v>793</v>
@@ -7483,13 +7513,13 @@
         <v>679739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>519</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>521</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,7 +7575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7557,13 +7587,13 @@
         <v>31564</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -7572,13 +7602,13 @@
         <v>35711</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -7587,13 +7617,13 @@
         <v>67275</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7638,13 @@
         <v>165184</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -7623,13 +7653,13 @@
         <v>195694</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M17" s="7">
         <v>650</v>
@@ -7638,13 +7668,13 @@
         <v>360877</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,7 +7730,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7715,7 +7745,7 @@
         <v>538</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>332</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>539</v>
@@ -7745,10 +7775,10 @@
         <v>543</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,13 +7793,13 @@
         <v>255478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>384</v>
@@ -7778,13 +7808,13 @@
         <v>239060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M20" s="7">
         <v>719</v>
@@ -7793,13 +7823,13 @@
         <v>494538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,7 +7885,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7867,13 +7897,13 @@
         <v>98033</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -7882,13 +7912,13 @@
         <v>124690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
         <v>275</v>
@@ -7897,13 +7927,13 @@
         <v>222723</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7948,13 @@
         <v>529721</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H23" s="7">
         <v>776</v>
@@ -7933,13 +7963,13 @@
         <v>679513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="M23" s="7">
         <v>1284</v>
@@ -7948,13 +7978,13 @@
         <v>1209234</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>570</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,7 +8040,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8022,13 +8052,13 @@
         <v>140649</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>40</v>
+        <v>573</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="H25" s="7">
         <v>270</v>
@@ -8037,13 +8067,13 @@
         <v>195224</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="M25" s="7">
         <v>421</v>
@@ -8052,13 +8082,13 @@
         <v>335872</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,13 +8103,13 @@
         <v>718779</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>583</v>
       </c>
       <c r="H26" s="7">
         <v>792</v>
@@ -8088,13 +8118,13 @@
         <v>673210</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="M26" s="7">
         <v>1403</v>
@@ -8103,13 +8133,13 @@
         <v>1391990</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,13 +8207,13 @@
         <v>362565</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>255</v>
+        <v>591</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>583</v>
+        <v>317</v>
       </c>
       <c r="H28" s="7">
         <v>820</v>
@@ -8192,13 +8222,13 @@
         <v>537088</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="M28" s="7">
         <v>1216</v>
@@ -8207,13 +8237,13 @@
         <v>899653</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8258,13 @@
         <v>3019136</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>590</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>264</v>
+        <v>599</v>
       </c>
       <c r="H29" s="7">
         <v>4537</v>
@@ -8243,13 +8273,13 @@
         <v>3267070</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="M29" s="7">
         <v>7514</v>
@@ -8258,13 +8288,13 @@
         <v>6286206</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>561</v>
+        <v>603</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8320,7 +8350,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P12_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P12_3_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F954DA17-CAEB-416E-894B-3918164C34BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB03D6B6-880A-4FFE-B1C4-9D47638286F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3311B5BA-1CD6-4F34-BECB-39B8A907C14A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78D32974-D5B9-4FBD-BF23-775586178FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,1765 +77,1765 @@
     <t>5,64%</t>
   </si>
   <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>91,52%</t>
   </si>
   <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2016 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>88,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
   </si>
   <si>
     <t>90,34%</t>
@@ -2268,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC062E4-BBA2-44C1-89F4-DC769F975CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F65C1A-9ECD-4EBC-9506-6F7215CBB3B0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2735,10 +2735,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2753,13 @@
         <v>316187</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>329</v>
@@ -2768,13 +2768,13 @@
         <v>329683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>637</v>
@@ -2783,13 +2783,13 @@
         <v>645870</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,7 +2845,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2857,13 +2857,13 @@
         <v>4496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2872,13 +2872,13 @@
         <v>14820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2887,13 +2887,13 @@
         <v>19315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2908,13 @@
         <v>354175</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>369</v>
@@ -2923,13 +2923,13 @@
         <v>356636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>727</v>
@@ -2938,13 +2938,13 @@
         <v>710812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3012,13 +3012,13 @@
         <v>23113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3027,13 +3027,13 @@
         <v>36477</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3042,13 +3042,13 @@
         <v>59590</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3063,13 @@
         <v>180195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>163</v>
@@ -3078,13 +3078,13 @@
         <v>171191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -3093,13 +3093,13 @@
         <v>351386</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,7 +3155,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3167,13 +3167,13 @@
         <v>985</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3182,13 +3182,13 @@
         <v>9107</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3197,13 +3197,13 @@
         <v>10092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3218,13 @@
         <v>269826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" s="7">
         <v>261</v>
@@ -3233,13 +3233,13 @@
         <v>269037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -3248,13 +3248,13 @@
         <v>538863</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,7 +3310,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3322,13 +3322,13 @@
         <v>27296</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -3337,13 +3337,13 @@
         <v>33201</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3352,13 +3352,13 @@
         <v>60497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3373,13 @@
         <v>587731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>588</v>
@@ -3388,13 +3388,13 @@
         <v>605018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3403,13 +3403,13 @@
         <v>1192749</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3465,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3477,13 +3477,13 @@
         <v>52456</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>92</v>
@@ -3492,13 +3492,13 @@
         <v>99324</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>145</v>
@@ -3507,13 +3507,13 @@
         <v>151780</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3528,13 @@
         <v>691339</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>653</v>
@@ -3543,13 +3543,13 @@
         <v>684187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1336</v>
@@ -3558,13 +3558,13 @@
         <v>1375526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3632,13 @@
         <v>166046</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>277</v>
@@ -3647,13 +3647,13 @@
         <v>286526</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>439</v>
@@ -3662,13 +3662,13 @@
         <v>452571</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,16 +3680,16 @@
         <v>3052</v>
       </c>
       <c r="D29" s="7">
-        <v>3110498</v>
+        <v>3110497</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>3020</v>
@@ -3698,13 +3698,13 @@
         <v>3092672</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>6072</v>
@@ -3713,13 +3713,13 @@
         <v>6203170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3731,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121C88B1-B3B1-4169-B136-7E87E9085ABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E360D4-DCBD-46A3-B885-1893740441A3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3816,7 +3816,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3921,39 +3921,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,39 +3966,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,39 +4011,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4060,13 @@
         <v>35674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>53</v>
@@ -4075,13 +4075,13 @@
         <v>58580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
@@ -4090,13 +4090,13 @@
         <v>94254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4111,13 @@
         <v>468445</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -4126,13 +4126,13 @@
         <v>464193</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>864</v>
@@ -4141,13 +4141,13 @@
         <v>932638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4215,13 @@
         <v>18494</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4230,13 +4230,13 @@
         <v>38453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -4245,13 +4245,13 @@
         <v>56947</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4266,13 @@
         <v>305552</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>281</v>
@@ -4281,13 +4281,13 @@
         <v>302567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>582</v>
@@ -4296,13 +4296,13 @@
         <v>608119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,7 +4358,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4370,13 +4370,13 @@
         <v>69356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -4385,13 +4385,13 @@
         <v>158037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -4400,13 +4400,13 @@
         <v>227393</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4421,13 @@
         <v>598399</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>480</v>
@@ -4436,13 +4436,13 @@
         <v>516113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1039</v>
@@ -4451,13 +4451,13 @@
         <v>1114512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,7 +4513,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4525,13 +4525,13 @@
         <v>10444</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4540,13 +4540,13 @@
         <v>28876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -4555,13 +4555,13 @@
         <v>39320</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4576,13 @@
         <v>202174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -4591,13 +4591,13 @@
         <v>190715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>370</v>
@@ -4606,13 +4606,13 @@
         <v>392889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,7 +4668,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4680,13 +4680,13 @@
         <v>22722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -4695,13 +4695,13 @@
         <v>29942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4710,13 +4710,13 @@
         <v>52664</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4731,13 @@
         <v>251259</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>239</v>
@@ -4746,13 +4746,13 @@
         <v>249138</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
@@ -4761,13 +4761,13 @@
         <v>500397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,7 +4823,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4835,13 +4835,13 @@
         <v>37854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -4850,13 +4850,13 @@
         <v>55855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -4865,13 +4865,13 @@
         <v>93709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4886,13 @@
         <v>624934</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>587</v>
@@ -4901,13 +4901,13 @@
         <v>637016</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>1170</v>
@@ -4916,13 +4916,13 @@
         <v>1261950</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,7 +4978,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4990,13 +4990,13 @@
         <v>81964</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -5005,13 +5005,13 @@
         <v>102533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -5020,13 +5020,13 @@
         <v>184498</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5041,13 @@
         <v>693934</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>665</v>
@@ -5056,13 +5056,13 @@
         <v>720256</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1304</v>
@@ -5071,13 +5071,13 @@
         <v>1414189</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5145,13 @@
         <v>276508</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>430</v>
@@ -5160,13 +5160,13 @@
         <v>472276</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>689</v>
@@ -5175,13 +5175,13 @@
         <v>748783</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5196,13 @@
         <v>3144697</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>2862</v>
@@ -5211,13 +5211,13 @@
         <v>3079998</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>5807</v>
@@ -5226,13 +5226,13 @@
         <v>6224695</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,7 +5288,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5312,7 +5312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDD2DA1-D3FF-4EF4-989A-1A51A833688F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CFBA0F-79BC-485B-B58A-560EE95F2459}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5329,7 +5329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5436,13 +5436,13 @@
         <v>34472</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -5451,13 +5451,13 @@
         <v>51757</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -5466,13 +5466,13 @@
         <v>86229</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5487,13 @@
         <v>258302</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>229</v>
@@ -5502,13 +5502,13 @@
         <v>236946</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>462</v>
@@ -5517,13 +5517,13 @@
         <v>495248</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5591,13 @@
         <v>20643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -5606,13 +5606,13 @@
         <v>39502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -5621,13 +5621,13 @@
         <v>60145</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5642,13 @@
         <v>480786</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -5657,13 +5657,13 @@
         <v>481507</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>900</v>
@@ -5672,13 +5672,13 @@
         <v>962294</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5746,13 @@
         <v>15749</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5761,13 +5761,13 @@
         <v>15369</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5776,13 +5776,13 @@
         <v>31118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5797,13 @@
         <v>302816</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -5812,13 +5812,13 @@
         <v>318106</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -5827,13 +5827,13 @@
         <v>620922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,7 +5889,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5901,13 +5901,13 @@
         <v>25979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -5916,13 +5916,13 @@
         <v>67303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -5931,13 +5931,13 @@
         <v>93282</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5952,13 @@
         <v>343985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>297</v>
@@ -5967,13 +5967,13 @@
         <v>319099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>625</v>
@@ -5982,13 +5982,13 @@
         <v>663084</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,7 +6044,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6056,13 +6056,13 @@
         <v>30950</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -6071,13 +6071,13 @@
         <v>51422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -6086,13 +6086,13 @@
         <v>82372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6107,13 @@
         <v>180271</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>173</v>
@@ -6122,13 +6122,13 @@
         <v>167165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>354</v>
@@ -6137,13 +6137,13 @@
         <v>347436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6199,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6211,13 +6211,13 @@
         <v>17096</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -6226,13 +6226,13 @@
         <v>36817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -6241,13 +6241,13 @@
         <v>53913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6262,13 @@
         <v>246027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -6277,13 +6277,13 @@
         <v>236298</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>472</v>
@@ -6292,13 +6292,13 @@
         <v>482325</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6354,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6366,13 +6366,13 @@
         <v>52093</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -6381,13 +6381,13 @@
         <v>75459</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>111</v>
@@ -6396,13 +6396,13 @@
         <v>127552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6417,13 @@
         <v>604465</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -6432,13 +6432,13 @@
         <v>614564</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>1114</v>
@@ -6447,13 +6447,13 @@
         <v>1219029</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,7 +6509,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6521,13 +6521,13 @@
         <v>53102</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -6536,13 +6536,13 @@
         <v>77715</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>118</v>
@@ -6551,13 +6551,13 @@
         <v>130817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6572,13 @@
         <v>722342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>688</v>
@@ -6587,13 +6587,13 @@
         <v>748452</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>1384</v>
@@ -6602,13 +6602,13 @@
         <v>1470794</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6676,13 @@
         <v>250085</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>373</v>
@@ -6691,13 +6691,13 @@
         <v>415345</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M28" s="7">
         <v>614</v>
@@ -6706,13 +6706,13 @@
         <v>665430</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6727,13 @@
         <v>3138993</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>2958</v>
@@ -6742,28 +6742,28 @@
         <v>3122136</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>5943</v>
       </c>
       <c r="N29" s="7">
-        <v>6261129</v>
+        <v>6261130</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +6805,7 @@
         <v>6557</v>
       </c>
       <c r="N30" s="7">
-        <v>6926559</v>
+        <v>6926560</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6843,7 +6843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F767D8B-CF92-4C9E-96F5-A42E4DA527B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180D6FA3-D789-4880-8376-F55B6B1A18D8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6860,7 +6860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6970,10 +6970,10 @@
         <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>466</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -6982,13 +6982,13 @@
         <v>2661</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6997,13 +6997,13 @@
         <v>2661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,10 +7018,10 @@
         <v>260298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -7122,7 +7122,7 @@
         <v>30591</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>480</v>
@@ -7155,10 +7155,10 @@
         <v>485</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>486</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>486</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,7 +7173,7 @@
         <v>488706</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>421</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>487</v>
@@ -7206,10 +7206,10 @@
         <v>492</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,7 +7310,7 @@
         <v>500</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>501</v>
@@ -7364,7 +7364,7 @@
         <v>509</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,7 +7420,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7435,10 +7435,10 @@
         <v>510</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>511</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -7447,13 +7447,13 @@
         <v>49361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -7462,13 +7462,13 @@
         <v>66723</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7483,13 @@
         <v>301847</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -7498,13 +7498,13 @@
         <v>377892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M14" s="7">
         <v>793</v>
@@ -7513,13 +7513,13 @@
         <v>679739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,7 +7575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7587,13 +7587,13 @@
         <v>31564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -7602,13 +7602,13 @@
         <v>35711</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -7617,13 +7617,13 @@
         <v>67275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7638,13 @@
         <v>165184</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -7653,13 +7653,13 @@
         <v>195694</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M17" s="7">
         <v>650</v>
@@ -7668,13 +7668,13 @@
         <v>360877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,7 +7730,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7742,13 +7742,13 @@
         <v>21249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>541</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -7757,13 +7757,13 @@
         <v>36562</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -7772,13 +7772,13 @@
         <v>57811</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7793,13 @@
         <v>255478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>342</v>
+        <v>551</v>
       </c>
       <c r="H20" s="7">
         <v>384</v>
@@ -7808,13 +7808,13 @@
         <v>239060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="M20" s="7">
         <v>719</v>
@@ -7823,13 +7823,13 @@
         <v>494538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,7 +7885,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7897,13 +7897,13 @@
         <v>98033</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -7912,13 +7912,13 @@
         <v>124690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>557</v>
+        <v>391</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>558</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M22" s="7">
         <v>275</v>
@@ -7927,13 +7927,13 @@
         <v>222723</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7948,13 @@
         <v>529721</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H23" s="7">
         <v>776</v>
@@ -7963,13 +7963,13 @@
         <v>679513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>566</v>
+        <v>401</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>1284</v>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8207,13 +8207,13 @@
         <v>362565</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H28" s="7">
         <v>820</v>
@@ -8258,10 +8258,10 @@
         <v>3019136</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>599</v>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
